--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C71871-3C07-4582-A741-83D3A270AC71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A85EE97-FB69-4837-B6A2-43AC531A1D40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="BatchDecisionOutputValidations" sheetId="5" r:id="rId8"/>
     <sheet name="CheckLists" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="290">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -888,10 +888,22 @@
     <t>Not Available</t>
   </si>
   <si>
-    <t>23.218.94.2.NA.01-01-01</t>
-  </si>
-  <si>
     <t>PegaGadget2Ifr</t>
+  </si>
+  <si>
+    <t>test_5</t>
+  </si>
+  <si>
+    <t>csvDownloadclick</t>
+  </si>
+  <si>
+    <t>29.356.254.2.NA.01-01-01</t>
+  </si>
+  <si>
+    <t>chkCallCentre</t>
+  </si>
+  <si>
+    <t>chkInCall</t>
   </si>
 </sst>
 </file>
@@ -1507,7 +1519,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1588,7 +1600,7 @@
         <v>101</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -1603,7 +1615,7 @@
         <v>184</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -1618,7 +1630,7 @@
         <v>282</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -1648,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EA4E71-0B53-4881-A15A-C454293CD34C}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1999,7 +2011,7 @@
         <v>142</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="3"/>
@@ -2197,19 +2209,19 @@
         <v>178</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>46</v>
+        <v>288</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8">
@@ -2217,20 +2229,18 @@
         <v>178</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="7">
-        <v>3000</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="3"/>
     </row>
@@ -2239,19 +2249,19 @@
         <v>178</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>46</v>
+        <v>289</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8">
@@ -2259,21 +2269,19 @@
         <v>178</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="7">
-        <v>3000</v>
-      </c>
-      <c r="G30" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8">
@@ -2281,19 +2289,21 @@
         <v>178</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="F31" s="7">
+        <v>3000</v>
+      </c>
+      <c r="G31" s="7"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8">
@@ -2301,21 +2311,19 @@
         <v>178</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="7">
-        <v>3000</v>
-      </c>
-      <c r="G32" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8">
@@ -2323,19 +2331,21 @@
         <v>178</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="F33" s="7">
+        <v>3000</v>
+      </c>
+      <c r="G33" s="7"/>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8">
@@ -2343,13 +2353,13 @@
         <v>178</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>43</v>
@@ -2363,7 +2373,7 @@
         <v>178</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>54</v>
@@ -2375,7 +2385,7 @@
         <v>55</v>
       </c>
       <c r="F35" s="7">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="3"/>
@@ -2385,16 +2395,16 @@
         <v>178</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>266</v>
+        <v>43</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -2405,16 +2415,16 @@
         <v>178</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>266</v>
+        <v>49</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -2437,9 +2447,9 @@
         <v>55</v>
       </c>
       <c r="F38" s="7">
-        <v>10000</v>
-      </c>
-      <c r="G38" s="3"/>
+        <v>20000</v>
+      </c>
+      <c r="G38" s="7"/>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8">
@@ -2447,15 +2457,15 @@
         <v>178</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>266</v>
       </c>
       <c r="F39" s="3"/>
@@ -2467,20 +2477,18 @@
         <v>178</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" s="3">
-        <v>10000</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
@@ -2489,16 +2497,16 @@
         <v>178</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>286</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -2509,18 +2517,20 @@
         <v>178</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F42" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="F42" s="3">
+        <v>10000</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
@@ -2529,20 +2539,18 @@
         <v>178</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43" s="3">
-        <v>30000</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
@@ -2551,20 +2559,62 @@
         <v>178</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2579,10 +2629,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F162030-4240-4061-B605-62E03F55BA7B}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:F16"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2927,7 +2977,7 @@
         <v>142</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -3572,7 +3622,7 @@
         <v>72</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -3583,20 +3633,18 @@
         <v>179</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" s="7">
-        <v>10000</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
@@ -3608,15 +3656,17 @@
         <v>96</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="F50" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="3">
+        <v>10000</v>
+      </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
@@ -3625,20 +3675,18 @@
         <v>179</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F51" s="3">
-        <v>10000</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
@@ -3647,16 +3695,16 @@
         <v>179</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -3667,18 +3715,20 @@
         <v>179</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F53" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="F53" s="3">
+        <v>30000</v>
+      </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
@@ -3687,42 +3737,20 @@
         <v>179</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F54" s="3">
-        <v>30000</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3736,10 +3764,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61013C2-7F35-4D0B-B54C-3015EDB52E25}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4086,7 +4114,7 @@
         <v>142</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="16"/>
@@ -4380,7 +4408,7 @@
         <v>272</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="16"/>
@@ -4606,8 +4634,8 @@
       <c r="D42" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E42" s="23" t="s">
-        <v>266</v>
+      <c r="E42" s="16" t="s">
+        <v>286</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
@@ -4618,20 +4646,18 @@
         <v>281</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43" s="21">
-        <v>10000</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="F43" s="21"/>
       <c r="G43" s="21"/>
       <c r="H43" s="16"/>
     </row>
@@ -4640,18 +4666,20 @@
         <v>281</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="F44" s="21"/>
+        <v>31</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="21">
+        <v>10000</v>
+      </c>
       <c r="G44" s="21"/>
       <c r="H44" s="16"/>
     </row>
@@ -4660,20 +4688,18 @@
         <v>281</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45" s="21">
-        <v>10000</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F45" s="21"/>
       <c r="G45" s="21"/>
       <c r="H45" s="16"/>
     </row>
@@ -4682,16 +4708,16 @@
         <v>281</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>129</v>
+        <v>278</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
@@ -4702,18 +4728,20 @@
         <v>281</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>278</v>
+        <v>130</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="F47" s="21"/>
+        <v>55</v>
+      </c>
+      <c r="F47" s="21">
+        <v>30000</v>
+      </c>
       <c r="G47" s="21"/>
       <c r="H47" s="16"/>
     </row>
@@ -4722,42 +4750,20 @@
         <v>281</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>130</v>
+        <v>279</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48" s="21">
-        <v>30000</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="F48" s="21"/>
       <c r="G48" s="21"/>
       <c r="H48" s="16"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4774,8 +4780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C8C304-D672-42E3-8009-BB544F384D0E}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5202,7 +5208,7 @@
         <v>198</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="3"/>
@@ -5224,7 +5230,7 @@
         <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="3"/>
